--- a/TP1/resultats.xlsx
+++ b/TP1/resultats.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="B4:I95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D96" activeCellId="0" sqref="D96"/>
+      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
